--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,17 +833,17 @@
         <v>5000</v>
       </c>
       <c r="E12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="3">
         <v>8300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +962,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,17 +1004,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-5200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>-5200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,17 +1082,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,26 +1134,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1230,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1262,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>5200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,26 +1454,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1518,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>244700</v>
+      </c>
+      <c r="E41" s="3">
         <v>90400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +1743,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1775,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E46" s="3">
         <v>91500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1839,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1749,23 +1856,26 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1967,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2031,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>250900</v>
+      </c>
+      <c r="E54" s="3">
         <v>97600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2093,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,20 +2155,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2187,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,20 +2251,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2379,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2489,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>141200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2553,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2681,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>246400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-50100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-44100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2782,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,8 +2848,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,26 +3020,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,26 +3336,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>101100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,26 +3400,29 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,61 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,40 +837,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
         <v>5000</v>
       </c>
       <c r="F12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="3">
         <v>8300</v>
       </c>
-      <c r="G12" s="3">
-        <v>6000</v>
-      </c>
       <c r="H12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,40 +989,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="G17" s="3">
-        <v>6800</v>
-      </c>
       <c r="H17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,31 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1056,25 +1090,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,31 +1119,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-7700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,40 +1177,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1282,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,57 +1510,63 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1597,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1704,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E41" s="3">
         <v>244700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,31 +1737,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>85800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,23 +1842,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,23 +1877,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E46" s="3">
         <v>248000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>91500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>99300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,31 +1912,34 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>4900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1842,13 +1947,16 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1856,8 +1964,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1868,14 +1976,17 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1979,14 +2099,14 @@
         <v>2900</v>
       </c>
       <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,23 +2157,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247500</v>
+      </c>
+      <c r="E54" s="3">
         <v>250900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>102100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2224,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,23 +2292,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,23 +2327,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,23 +2397,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,23 +2537,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>141200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,23 +2727,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,23 +2867,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237900</v>
+      </c>
+      <c r="E76" s="3">
         <v>246400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-50100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-44100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +2937,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,11 +3050,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3237,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,13 +3392,16 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-90700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,40 +3582,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>164200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>101100</v>
       </c>
-      <c r="G100" s="3">
-        <v>12000</v>
-      </c>
       <c r="H100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3652,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="E102" s="3">
         <v>154300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89100</v>
       </c>
-      <c r="G102" s="3">
-        <v>7100</v>
-      </c>
       <c r="H102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="3">
         <v>6500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5000</v>
       </c>
       <c r="F12" s="3">
         <v>5000</v>
       </c>
       <c r="G12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,34 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1099,19 +1134,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,34 +1157,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1519,54 +1590,60 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E41" s="3">
         <v>146300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,17 +1828,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E42" s="3">
         <v>85800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1857,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1775,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1942,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E46" s="3">
         <v>235000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>248000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>91500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>99300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,17 +2018,20 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E47" s="3">
         <v>4900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2047,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1950,25 +2056,28 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1979,14 +2088,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E52" s="3">
         <v>2900</v>
       </c>
       <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>238300</v>
+      </c>
+      <c r="E54" s="3">
         <v>247500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>250900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>102100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,26 +2430,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2672,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>141200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2695,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E76" s="3">
         <v>237900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>246400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-50100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-44100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3056,8 +3256,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,17 +3623,20 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3430,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>164200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>101100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>99900</v>
+      </c>
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-98400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>154300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>89100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>94700</v>
+      </c>
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E12" s="3">
         <v>7300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5000</v>
       </c>
       <c r="G12" s="3">
         <v>5000</v>
       </c>
       <c r="H12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I12" s="3">
         <v>8300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
         <v>12100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,11 +1153,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1137,19 +1171,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1194,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,11 +1645,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1593,57 +1663,63 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E41" s="3">
         <v>135100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,20 +1918,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E42" s="3">
         <v>89700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>85800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,8 +1950,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E46" s="3">
         <v>227500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>235000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>91500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>99300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,20 +2123,23 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E47" s="3">
         <v>3800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,8 +2155,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2059,28 +2164,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2091,14 +2199,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2900</v>
       </c>
       <c r="F52" s="3">
         <v>2900</v>
       </c>
       <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E54" s="3">
         <v>238300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>247500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>250900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>102100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>141200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E76" s="3">
         <v>229000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>246400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-50100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-44100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,8 +3458,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,20 +3853,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-90700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>164200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>101100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>99900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-98400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>154300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>89100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>94700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E12" s="3">
         <v>11400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5000</v>
       </c>
       <c r="H12" s="3">
         <v>5000</v>
       </c>
       <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,14 +1186,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1174,19 +1207,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1230,43 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,14 +1714,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1666,60 +1735,66 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1965,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E41" s="3">
         <v>115600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>135100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>244700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>90400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,23 +2007,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E42" s="3">
         <v>96900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>89700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>85800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2042,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,32 +2139,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E46" s="3">
         <v>215000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>227500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>235000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>248000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>91500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>99300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,23 +2227,26 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E47" s="3">
         <v>8500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,8 +2262,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2167,31 +2271,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2202,14 +2309,17 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,32 +2447,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2900</v>
       </c>
       <c r="G52" s="3">
         <v>2900</v>
       </c>
       <c r="H52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>222400</v>
+      </c>
+      <c r="E54" s="3">
         <v>230300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>238300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>247500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>250900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>102100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,32 +2703,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,32 +2835,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3011,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>141200</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-98500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207600</v>
+      </c>
+      <c r="E76" s="3">
         <v>218600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>229000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>246400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-50100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-44100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,8 +3659,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +3952,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,23 +4082,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-90700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3897,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>164200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>101100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>99900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-98400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>154300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>89100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>94700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E12" s="3">
         <v>10400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5000</v>
       </c>
       <c r="I12" s="3">
         <v>5000</v>
       </c>
       <c r="J12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E17" s="3">
         <v>15500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,17 +1220,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1210,19 +1244,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,43 +1267,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,17 +1784,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1738,63 +1808,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>5200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E41" s="3">
         <v>94600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>135100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>146300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>244700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>90400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>97600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,26 +2097,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E42" s="3">
         <v>103400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>89700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>85800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,8 +2135,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,35 +2238,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E46" s="3">
         <v>202100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>227500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>235000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>248000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>91500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>99300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,26 +2332,29 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E47" s="3">
         <v>13800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2370,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2274,34 +2379,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2312,14 +2420,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,35 +2567,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2900</v>
       </c>
       <c r="H52" s="3">
         <v>2900</v>
       </c>
       <c r="I52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J52" s="3">
         <v>6100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>255600</v>
+      </c>
+      <c r="E54" s="3">
         <v>222400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>230300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>238300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>247500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>250900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>102100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,35 +2840,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>14800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>141200</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,35 +3423,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-126800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-98500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>245500</v>
+      </c>
+      <c r="E76" s="3">
         <v>207600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>218600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>229000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>237900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>246400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-50100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-44100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3662,8 +3861,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,34 +4173,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,26 +4312,29 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-90700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>164200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>101100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>99900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-98400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>154300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>89100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>94700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E12" s="3">
         <v>12400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5000</v>
       </c>
       <c r="J12" s="3">
         <v>5000</v>
       </c>
       <c r="K12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E17" s="3">
         <v>17100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,20 +1254,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1247,19 +1281,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,20 +1854,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1811,66 +1881,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>5200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E41" s="3">
         <v>109700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>135100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>146300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>244700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>90400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,29 +2187,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E42" s="3">
         <v>126900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>89700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>85800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2228,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E46" s="3">
         <v>242400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>202100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>227500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>235000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>248000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>91500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,29 +2437,32 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2478,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2382,37 +2487,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2423,14 +2531,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2900</v>
       </c>
       <c r="I52" s="3">
         <v>2900</v>
       </c>
       <c r="J52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E54" s="3">
         <v>255600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>222400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>230300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>238300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>247500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>250900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E60" s="3">
         <v>6600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>141200</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-126800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-98500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-61600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E76" s="3">
         <v>245500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>207600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>218600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>229000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>237900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>246400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-50100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-44100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,8 +4063,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,25 +4407,25 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,29 +4542,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-90700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>49500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>164200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>99900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="E102" s="3">
         <v>15100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-98400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>154300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>94700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>THRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E12" s="3">
         <v>12900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5000</v>
       </c>
       <c r="K12" s="3">
         <v>5000</v>
       </c>
       <c r="L12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E17" s="3">
         <v>17600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,23 +1288,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1284,19 +1318,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,23 +1924,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1884,69 +1954,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E41" s="3">
         <v>47500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>94600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>135100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>146300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>244700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>90400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,32 +2277,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E42" s="3">
         <v>160700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>126900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>103400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>96900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>89700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>85800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E46" s="3">
         <v>213800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>202100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>215000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>227500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>235000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>248000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>91500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>99300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,32 +2542,35 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E47" s="3">
         <v>26000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,40 +2595,43 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2534,14 +2642,17 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2900</v>
       </c>
       <c r="J52" s="3">
         <v>2900</v>
       </c>
       <c r="K52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E54" s="3">
         <v>245100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>255600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>222400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>230300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>238300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>247500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>250900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>141200</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>141200</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>141200</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-141600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-126800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-98500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-61600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E76" s="3">
         <v>234100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>245500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>207600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>218600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>229000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>237900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>246400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-50100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-44100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4615,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4410,25 +4631,25 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,32 +4772,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-90700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>164200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>101100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>99900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-98400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>154300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>89100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>94700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
